--- a/Measured PV data/Almeria_Spain/Meas_power_corrected_norm_2023.xlsx
+++ b/Measured PV data/Almeria_Spain/Meas_power_corrected_norm_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Informations" sheetId="3" r:id="rId1"/>
@@ -199,8 +199,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -210,7 +210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="133350" y="209550"/>
-          <a:ext cx="10242550" cy="1682750"/>
+          <a:ext cx="10242550" cy="2495550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -245,8 +245,37 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MAKE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> SURE THAT ALL THE INFORMATION YOU SHARE CAN BE SHARED PUBLICLY</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Please fill the PV_plant_setup file, the cases in yellow must be filled.</a:t>
+            <a:t>Please fill the PV_plant_setup file, the cases in yellow must be filled to have the code running.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -272,20 +301,57 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>--&gt; one with the raw measured PV data aggregated on the hourly level</a:t>
+            <a:t>--&gt; one with the raw measured PV data aggregated on the hourly level (faculative)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>--&gt; one with the normalized PV data (all values must be between 0 and 1)</a:t>
+            <a:t>--&gt; one with the normalized PV data: all values must be between 0 and 1 (facultative)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>--&gt; one normalized corrected file where missing values are replaced. Please explain how this has been done in the "General information file" in the same folder.</a:t>
-          </a:r>
+            <a:t>--&gt; one normalized corrected file where missing values are replaced (must be filled to have the code running)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If possible, please explain how this has been done in the "PV plant set-up informations" in this file.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
@@ -745,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
